--- a/SpectrumXl/template/Sample.xlsx
+++ b/SpectrumXl/template/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14318" windowHeight="6728"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="10635" windowHeight="6713"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Todays' serial number</t>
-  </si>
-  <si>
-    <t>"12/23/2014's weekday"</t>
-  </si>
-  <si>
-    <t>Today day of the week</t>
-  </si>
-  <si>
-    <t>"Today's date simple format"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>SP.DATE.WEEKDAY()</t>
+  </si>
+  <si>
+    <t>SP.DATE.YEAR()</t>
+  </si>
+  <si>
+    <t>SP.DATE.TODAYSF()</t>
+  </si>
+  <si>
+    <t>SP.DATE.TODAY()</t>
+  </si>
+  <si>
+    <t>SP.DATE.MONTH()</t>
+  </si>
+  <si>
+    <t>SP.DATE.DAYOFMONTH()</t>
+  </si>
+  <si>
+    <t>SP.DATE.DAYOFYEAR()</t>
+  </si>
+  <si>
+    <t>SP.DATE.DAYINLY()</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.SIMPLEFMT(B3)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.WEEKDAY(B3)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.YEAR(B3)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.MONTH(B3)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.DAYOFMONTH(B3)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.DAYOFYR(B3)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.ISLY(B3)</t>
+  </si>
+  <si>
+    <t>SP.DATE.MDY.WEEKDAY(12,26,2014)</t>
+  </si>
+  <si>
+    <t>SP.DATE.MDY.YEAR(12,26,2014)</t>
+  </si>
+  <si>
+    <t>SP.DATE.MDY.MONTH(12,26,2014)</t>
+  </si>
+  <si>
+    <t>SP.DATE.MDY.DAYOFMONTH(12,26,2014)</t>
+  </si>
+  <si>
+    <t>SP.DATE.MDY.DAYOFYR(12,26,2014)</t>
+  </si>
+  <si>
+    <t>SP.DATE.MDY.ISLEAPYR(12,26,2014)</t>
   </si>
 </sst>
 </file>
@@ -71,8 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,55 +407,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.53125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <f ca="1">_xll.SP.DATE.TODAY()</f>
         <v>41999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.TODAYSF()</f>
+        <v>12/26/2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.WEEKDAY()</f>
+        <v>FRIDAY</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
-        <f>_xll.SP.DATE.WEEKDAYSTR(12, 23, 2014)</f>
-        <v>TUESDAY</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="str">
-        <f ca="1">_xll.SP.DATE.WEEKDAYDT(B3)</f>
+      <c r="B6" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.YEAR()</f>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.MONTH()</f>
+        <v>DECEMBER</v>
+      </c>
+      <c r="C7">
+        <f>2+3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.DAYOFMONTH()</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.DAYOFYEAR()</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.DAYINLY()</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.SIMPLEFMT(B3)</f>
+        <v>12/26/2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.WEEKDAY(B3)</f>
         <v>FRIDAY</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="str">
-        <f ca="1">_xll.SP.DATE.SIMPLEFMT(B3)</f>
-        <v>12/26/2014</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.YEAR(B3)</f>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.MONTH(B3)</f>
+        <v>DECEMBER</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.DAYOFMONTH(B3)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.DAYOFYR(B3)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.ISLY(B3)</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>_xll.SP.DATE.MDY.WEEKDAY(12,26,2014)</f>
+        <v>FRIDAY</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>_xll.SP.DATE.MDY.YEAR(12,26,2014)</f>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>_xll.SP.DATE.MDY.MONTH(12,26,2014)</f>
+        <v>DECEMBER</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.MDY.DAYOFMONTH(12,26,2014)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>_xll.SP.DATE.MDY.DAYOFYR(12,26,2014)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>_xll.SP.DATE.MDY.ISLEAPYR(12,26,2014)</f>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SpectrumXl/template/Sample.xlsx
+++ b/SpectrumXl/template/Sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>SP.DATE.WEEKDAY()</t>
   </si>
@@ -50,27 +50,6 @@
     <t>SP.DATE.DAYINLY()</t>
   </si>
   <si>
-    <t>SP.DATE.SN.SIMPLEFMT(B3)</t>
-  </si>
-  <si>
-    <t>SP.DATE.SN.WEEKDAY(B3)</t>
-  </si>
-  <si>
-    <t>SP.DATE.SN.YEAR(B3)</t>
-  </si>
-  <si>
-    <t>SP.DATE.SN.MONTH(B3)</t>
-  </si>
-  <si>
-    <t>SP.DATE.SN.DAYOFMONTH(B3)</t>
-  </si>
-  <si>
-    <t>SP.DATE.SN.DAYOFYR(B3)</t>
-  </si>
-  <si>
-    <t>SP.DATE.SN.ISLY(B3)</t>
-  </si>
-  <si>
     <t>SP.DATE.MDY.WEEKDAY(12,26,2014)</t>
   </si>
   <si>
@@ -87,6 +66,129 @@
   </si>
   <si>
     <t>SP.DATE.MDY.ISLEAPYR(12,26,2014)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN(12,27,2014)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.SIMPLEFMT(B12)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.WEEKDAY(B12)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.YEAR(B12)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.MONTH(B12)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.DAYOFMONTH(B12)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.DAYOFYR(B12)</t>
+  </si>
+  <si>
+    <t>SP.DATE.SN.ISLY(B12)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>User Defined Function</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Today's serial number</t>
+  </si>
+  <si>
+    <t>Today in MM/DD/YYYY format</t>
+  </si>
+  <si>
+    <t>Today's day of the week</t>
+  </si>
+  <si>
+    <t>The current year</t>
+  </si>
+  <si>
+    <t>The current month</t>
+  </si>
+  <si>
+    <t>The current day of the month</t>
+  </si>
+  <si>
+    <t>The current day of the year</t>
+  </si>
+  <si>
+    <t>Indicator whether the current year is a leap year</t>
+  </si>
+  <si>
+    <t>Serial number for the date indicated</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY format for serial number date</t>
+  </si>
+  <si>
+    <t>Day of the week for the serial number date</t>
+  </si>
+  <si>
+    <t>Year for the serial number date</t>
+  </si>
+  <si>
+    <t>Month for the serial number date</t>
+  </si>
+  <si>
+    <t>Day of the year for the serial number date</t>
+  </si>
+  <si>
+    <t>Day of the month for the serial number date</t>
+  </si>
+  <si>
+    <t>Indicator whether the serial number date is a leap year</t>
+  </si>
+  <si>
+    <t>Day of the week for the mm, day and year indicated</t>
+  </si>
+  <si>
+    <t>Year for the mm, day, year indicated</t>
+  </si>
+  <si>
+    <t>Month for the mm, day, year indicated</t>
+  </si>
+  <si>
+    <t>Day of the month for the mm, day, year indicated</t>
+  </si>
+  <si>
+    <t>Day of the year for the mm, day, year indicated</t>
+  </si>
+  <si>
+    <t>Indicator whether the mm, day, year indicated is a leap year</t>
+  </si>
+  <si>
+    <t>Increment the current date by one</t>
+  </si>
+  <si>
+    <t>Decrement the current date by one</t>
+  </si>
+  <si>
+    <t>Increment the current date by 2</t>
+  </si>
+  <si>
+    <t>Decrement the current date by 2</t>
+  </si>
+  <si>
+    <t>SP.DATE.INCR()</t>
+  </si>
+  <si>
+    <t>SP.DATE.DECR()</t>
+  </si>
+  <si>
+    <t>SP.DATE.INCRBY(2)</t>
+  </si>
+  <si>
+    <t>SP.DATE.DECRBY(2)</t>
   </si>
 </sst>
 </file>
@@ -407,25 +509,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C25"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.9296875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">_xll.SP.DATE.TODAY()</f>
-        <v>41999</v>
+        <v>42000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -434,7 +551,10 @@
       </c>
       <c r="B4" s="1" t="str">
         <f ca="1">_xll.SP.DATE.TODAYSF()</f>
-        <v>12/26/2014</v>
+        <v>12/27/2014</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -443,7 +563,10 @@
       </c>
       <c r="B5" s="1" t="str">
         <f ca="1">_xll.SP.DATE.WEEKDAY()</f>
-        <v>FRIDAY</v>
+        <v>SATURDAY</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -454,6 +577,9 @@
         <f ca="1">_xll.SP.DATE.YEAR()</f>
         <v>2014</v>
       </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -463,9 +589,8 @@
         <f ca="1">_xll.SP.DATE.MONTH()</f>
         <v>DECEMBER</v>
       </c>
-      <c r="C7">
-        <f>2+3</f>
-        <v>5</v>
+      <c r="C7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -474,7 +599,10 @@
       </c>
       <c r="B8" s="1" t="str">
         <f ca="1">_xll.SP.DATE.DAYOFMONTH()</f>
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -483,7 +611,10 @@
       </c>
       <c r="B9" s="1" t="str">
         <f ca="1">_xll.SP.DATE.DAYOFYEAR()</f>
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -494,122 +625,224 @@
         <f ca="1">_xll.SP.DATE.DAYINLY()</f>
         <v>false</v>
       </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f ca="1">_xll.SP.DATE.SN.SIMPLEFMT(B3)</f>
-        <v>12/26/2014</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <f ca="1">_xll.SP.DATE.SN(12,27,2014)</f>
+        <v>42000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f ca="1">_xll.SP.DATE.SN.WEEKDAY(B3)</f>
-        <v>FRIDAY</v>
+        <f ca="1">_xll.SP.DATE.SN.SIMPLEFMT(B12)</f>
+        <v>12/27/2014</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f ca="1">_xll.SP.DATE.SN.YEAR(B3)</f>
-        <v>2014</v>
+        <f ca="1">_xll.SP.DATE.SN.WEEKDAY(B12)</f>
+        <v>SATURDAY</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f ca="1">_xll.SP.DATE.SN.MONTH(B3)</f>
-        <v>DECEMBER</v>
+        <f ca="1">_xll.SP.DATE.SN.YEAR(B12)</f>
+        <v>2014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f ca="1">_xll.SP.DATE.SN.DAYOFMONTH(B3)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <f ca="1">_xll.SP.DATE.SN.MONTH(B12)</f>
+        <v>DECEMBER</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f ca="1">_xll.SP.DATE.SN.DAYOFYR(B3)</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <f ca="1">_xll.SP.DATE.SN.DAYOFMONTH(B12)</f>
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f ca="1">_xll.SP.DATE.SN.ISLY(B3)</f>
+        <f ca="1">_xll.SP.DATE.SN.DAYOFYR(B12)</f>
+        <v>361</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f ca="1">_xll.SP.DATE.SN.ISLY(B12)</f>
         <v>false</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="str">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="str">
         <f>_xll.SP.DATE.MDY.WEEKDAY(12,26,2014)</f>
         <v>FRIDAY</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="str">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="str">
         <f>_xll.SP.DATE.MDY.YEAR(12,26,2014)</f>
         <v>2014</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="str">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="str">
         <f>_xll.SP.DATE.MDY.MONTH(12,26,2014)</f>
         <v>DECEMBER</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="str">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="str">
         <f ca="1">_xll.SP.DATE.MDY.DAYOFMONTH(12,26,2014)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="str">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="str">
         <f>_xll.SP.DATE.MDY.DAYOFYR(12,26,2014)</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="str">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="str">
         <f>_xll.SP.DATE.MDY.ISLEAPYR(12,26,2014)</f>
         <v>false</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1">
+        <f ca="1">_xll.SP.DATE.INCR()</f>
+        <v>42001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1">
+        <f ca="1">_xll.SP.DATE.DECR()</f>
+        <v>41999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1">
+        <f ca="1">_xll.SP.DATE.INCRBY(2)</f>
+        <v>42002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1">
+        <f ca="1">_xll.SP.DATE.DECRBY(2)</f>
+        <v>41998</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/SpectrumXl/template/Sample.xlsx
+++ b/SpectrumXl/template/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="10635" windowHeight="6713"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="10640" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>SP.DATE.WEEKDAY()</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>SP.DATE.DECRBY(2)</t>
+  </si>
+  <si>
+    <t>SP.DC.ACT360(42000,42001)</t>
+  </si>
+  <si>
+    <t>Day Count using ACT360</t>
   </si>
 </sst>
 </file>
@@ -509,20 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.9296875" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -532,44 +538,52 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">_xll.SP.DATE.TODAY()</f>
-        <v>42000</v>
+        <v>42001</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
         <f ca="1">_xll.SP.DATE.TODAYSF()</f>
-        <v>12/27/2014</v>
+        <v>12/28/2014</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="str">
         <f ca="1">_xll.SP.DATE.WEEKDAY()</f>
-        <v>SATURDAY</v>
+        <v>SUNDAY</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -581,7 +595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -593,31 +607,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="str">
         <f ca="1">_xll.SP.DATE.DAYOFMONTH()</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="str">
         <f ca="1">_xll.SP.DATE.DAYOFYEAR()</f>
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -629,7 +643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -641,7 +655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -653,7 +667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -665,7 +679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -677,7 +691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -689,7 +703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -701,7 +715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -713,7 +727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -725,7 +739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -737,7 +751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -749,7 +763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -761,7 +775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -773,7 +787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -785,7 +799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -797,52 +811,70 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="1">
         <f ca="1">_xll.SP.DATE.INCR()</f>
-        <v>42001</v>
+        <v>42002</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="1">
         <f ca="1">_xll.SP.DATE.DECR()</f>
-        <v>41999</v>
+        <v>42000</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="1">
         <f ca="1">_xll.SP.DATE.INCRBY(2)</f>
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="1">
         <f ca="1">_xll.SP.DATE.DECRBY(2)</f>
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1">
+        <f ca="1">_xll.SP.DC.ACT360(42000,42002)</f>
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="e">
+        <f>SP</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
